--- a/Excel/Controller.xlsx
+++ b/Excel/Controller.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="2910"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -27,22 +27,145 @@
     <t>ExecutionStatus</t>
   </si>
   <si>
-    <t>Scenario1</t>
-  </si>
-  <si>
-    <t>Form Name</t>
-  </si>
-  <si>
-    <t>TAX Pay-Use Case1</t>
-  </si>
-  <si>
-    <t>TAX Pay-Use Case2</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Scenario1.1</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Vicor-UC1</t>
+  </si>
+  <si>
+    <t>Vicor-UC2</t>
+  </si>
+  <si>
+    <t>Vicor-UC3</t>
+  </si>
+  <si>
+    <t>Vicor-UC4</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC1</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC2</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC3</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC4</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC5</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC6</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC7</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC8</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC9</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC10</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC11</t>
+  </si>
+  <si>
+    <t>ACHORIG-UC12</t>
+  </si>
+  <si>
+    <t>ACH-OLBB-UC1</t>
+  </si>
+  <si>
+    <t>Wires-UC1</t>
+  </si>
+  <si>
+    <t>Wires-UC2</t>
+  </si>
+  <si>
+    <t>Wires-UC3</t>
+  </si>
+  <si>
+    <t>Wires-UC4</t>
+  </si>
+  <si>
+    <t>Wholesale-UC1</t>
+  </si>
+  <si>
+    <t>Wholesale-UC2</t>
+  </si>
+  <si>
+    <t>ACH-Haries-UC1</t>
+  </si>
+  <si>
+    <t>ACH-Haries-UC2</t>
+  </si>
+  <si>
+    <t>RetailLockBox-UC1</t>
+  </si>
+  <si>
+    <t>RetailLockBox-UC2</t>
+  </si>
+  <si>
+    <t>RetailImaging-UC1</t>
+  </si>
+  <si>
+    <t>RetailImaging-UC2</t>
+  </si>
+  <si>
+    <t>ACH-FP-UC1</t>
+  </si>
+  <si>
+    <t>ACH-FP-UC2</t>
+  </si>
+  <si>
+    <t>ACH-FP-UC3</t>
+  </si>
+  <si>
+    <t>ACH-FP-UC4</t>
+  </si>
+  <si>
+    <t>ACH-FP-UC5</t>
+  </si>
+  <si>
+    <t>OLBB-UC1</t>
+  </si>
+  <si>
+    <t>OLBB-UC2</t>
+  </si>
+  <si>
+    <t>OLBB-UC3</t>
+  </si>
+  <si>
+    <t>OLBB-UC4</t>
+  </si>
+  <si>
+    <t>OLBB-UC5</t>
+  </si>
+  <si>
+    <t>OLBB-UC6</t>
+  </si>
+  <si>
+    <t>OLBB-UC7</t>
+  </si>
+  <si>
+    <t>OLBB-UC8</t>
+  </si>
+  <si>
+    <t>OLBB-UC9</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Vicor-UC5</t>
   </si>
 </sst>
 </file>
@@ -74,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,27 +220,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,50 +543,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Controller.xlsx
+++ b/Excel/Controller.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -608,7 +608,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -744,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -784,7 +784,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -816,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -832,7 +832,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -856,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -864,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -872,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -896,7 +896,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -904,7 +904,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -912,7 +912,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -920,7 +920,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Controller.xlsx
+++ b/Excel/Controller.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Vicor-UC5</t>
+  </si>
+  <si>
+    <t>Vicor-UC6</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -584,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -592,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -600,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -608,12 +611,12 @@
         <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -621,7 +624,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>47</v>
@@ -629,7 +632,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>47</v>
@@ -637,7 +640,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>47</v>
@@ -645,7 +648,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>47</v>
@@ -653,7 +656,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
@@ -661,7 +664,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -669,7 +672,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -677,7 +680,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>47</v>
@@ -685,7 +688,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>47</v>
@@ -701,7 +704,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>47</v>
@@ -709,7 +712,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>47</v>
@@ -717,39 +720,39 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>47</v>
@@ -757,7 +760,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>47</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>47</v>
@@ -773,7 +776,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>47</v>
@@ -781,146 +784,154 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Controller.xlsx
+++ b/Excel/Controller.xlsx
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B4:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,7 +923,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">

--- a/Excel/Controller.xlsx
+++ b/Excel/Controller.xlsx
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B4:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
